--- a/6店销售情况-1110.xlsx
+++ b/6店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="413">
   <si>
     <t>（父）ASIN</t>
   </si>
@@ -600,12 +600,24 @@
     <t>Y6084-BL</t>
   </si>
   <si>
+    <t>CA$199.95</t>
+  </si>
+  <si>
+    <t>CA$53.98</t>
+  </si>
+  <si>
+    <t>CA$79.98</t>
+  </si>
+  <si>
     <t>B0C8NCNYPN</t>
   </si>
   <si>
     <t>Y6608-GR</t>
   </si>
   <si>
+    <t>CA$39.98</t>
+  </si>
+  <si>
     <t>B0C8TJHWYW</t>
   </si>
   <si>
@@ -615,6 +627,9 @@
     <t>Y6611</t>
   </si>
   <si>
+    <t>CA$27.98</t>
+  </si>
+  <si>
     <t>B0C53L92DN</t>
   </si>
   <si>
@@ -624,6 +639,12 @@
     <t>Y6601-BL-1</t>
   </si>
   <si>
+    <t>CA$26.99</t>
+  </si>
+  <si>
+    <t>CA$62.03</t>
+  </si>
+  <si>
     <t>B0B8NQD6CN</t>
   </si>
   <si>
@@ -684,6 +705,18 @@
     <t>Y6053-NF</t>
   </si>
   <si>
+    <t>CA$329.92</t>
+  </si>
+  <si>
+    <t>CA$254.94</t>
+  </si>
+  <si>
+    <t>CA$79.96</t>
+  </si>
+  <si>
+    <t>CA$124.06</t>
+  </si>
+  <si>
     <t>B0CG4N34JG</t>
   </si>
   <si>
@@ -696,6 +729,9 @@
     <t>Y6006-WH</t>
   </si>
   <si>
+    <t>CA$18.67</t>
+  </si>
+  <si>
     <t>B0C53KLFLS</t>
   </si>
   <si>
@@ -703,6 +739,9 @@
   </si>
   <si>
     <t>Y6601-SC-1</t>
+  </si>
+  <si>
+    <t>CA$39.99</t>
   </si>
   <si>
     <t>开始日期</t>
@@ -1224,7 +1263,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="9">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1252,34 +1291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1293,14 +1304,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1340,6 +1343,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1390,7 +1408,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1411,55 +1450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,31 +1474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,6 +1510,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1537,7 +1534,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,7 +1582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,6 +1618,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1602,21 +1641,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1649,6 +1673,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,148 +1746,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1881,52 +1920,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2123,7 +2162,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2132,7 +2171,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -2409,7 +2448,7 @@
       <selection activeCell="S37" sqref="S$1:S$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="10.5"/>
     <col min="20" max="20" width="9.5"/>
@@ -5826,11 +5865,11 @@
   <sheetPr/>
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S28" sqref="S$1:S$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="10.5"/>
     <col min="20" max="20" width="9.5"/>
@@ -9223,8 +9262,8 @@
       <c r="R50" s="10">
         <v>0</v>
       </c>
-      <c r="S50" s="12">
-        <v>199.95</v>
+      <c r="S50" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="T50" t="s">
         <v>177</v>
@@ -9291,8 +9330,8 @@
       <c r="R51" s="10">
         <v>0</v>
       </c>
-      <c r="S51" s="12">
-        <v>53.98</v>
+      <c r="S51" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="T51" t="s">
         <v>177</v>
@@ -9359,8 +9398,8 @@
       <c r="R52" s="10">
         <v>0</v>
       </c>
-      <c r="S52" s="12">
-        <v>79.98</v>
+      <c r="S52" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="T52" t="s">
         <v>177</v>
@@ -9374,16 +9413,16 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
         <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E53">
         <v>27</v>
@@ -9427,8 +9466,8 @@
       <c r="R53" s="10">
         <v>0</v>
       </c>
-      <c r="S53" s="12">
-        <v>39.98</v>
+      <c r="S53" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="T53" t="s">
         <v>177</v>
@@ -9442,16 +9481,16 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E54">
         <v>14</v>
@@ -9495,8 +9534,8 @@
       <c r="R54" s="10">
         <v>0</v>
       </c>
-      <c r="S54" s="12">
-        <v>27.98</v>
+      <c r="S54" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="T54" t="s">
         <v>177</v>
@@ -9510,16 +9549,16 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E55">
         <v>41</v>
@@ -9563,8 +9602,8 @@
       <c r="R55" s="10">
         <v>0</v>
       </c>
-      <c r="S55" s="12">
-        <v>26.99</v>
+      <c r="S55" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="T55" t="s">
         <v>177</v>
@@ -9631,8 +9670,8 @@
       <c r="R56" s="10">
         <v>0</v>
       </c>
-      <c r="S56" s="12">
-        <v>62.03</v>
+      <c r="S56" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="T56" t="s">
         <v>177</v>
@@ -9655,11 +9694,11 @@
   <sheetPr/>
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="19" max="19" width="10.5"/>
     <col min="20" max="20" width="9.5"/>
@@ -12183,16 +12222,16 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E38">
         <v>25</v>
@@ -12322,13 +12361,13 @@
         <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E40">
         <v>110</v>
@@ -12455,16 +12494,16 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E42">
         <v>88</v>
@@ -12934,13 +12973,13 @@
         <v>162</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E49">
         <v>217</v>
@@ -13070,13 +13109,13 @@
         <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E51">
         <v>185</v>
@@ -13203,16 +13242,16 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>34</v>
@@ -13460,8 +13499,8 @@
       <c r="R56" s="10">
         <v>0</v>
       </c>
-      <c r="S56" s="12">
-        <v>329.92</v>
+      <c r="S56" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="T56" t="s">
         <v>177</v>
@@ -13528,8 +13567,8 @@
       <c r="R57" s="10">
         <v>0</v>
       </c>
-      <c r="S57" s="12">
-        <v>254.94</v>
+      <c r="S57" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="T57" t="s">
         <v>177</v>
@@ -13543,16 +13582,16 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
         <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E58">
         <v>53</v>
@@ -13596,8 +13635,8 @@
       <c r="R58" s="10">
         <v>0</v>
       </c>
-      <c r="S58" s="12">
-        <v>79.96</v>
+      <c r="S58" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="T58" t="s">
         <v>177</v>
@@ -13664,8 +13703,8 @@
       <c r="R59" s="10">
         <v>0</v>
       </c>
-      <c r="S59" s="12">
-        <v>53.98</v>
+      <c r="S59" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="T59" t="s">
         <v>177</v>
@@ -13679,16 +13718,16 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E60">
         <v>16</v>
@@ -13732,8 +13771,8 @@
       <c r="R60" s="10">
         <v>0</v>
       </c>
-      <c r="S60" s="12">
-        <v>27.98</v>
+      <c r="S60" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="T60" t="s">
         <v>177</v>
@@ -13800,8 +13839,8 @@
       <c r="R61" s="10">
         <v>0</v>
       </c>
-      <c r="S61" s="12">
-        <v>124.06</v>
+      <c r="S61" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="T61" t="s">
         <v>177</v>
@@ -13815,16 +13854,16 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -13868,8 +13907,8 @@
       <c r="R62" s="10">
         <v>0</v>
       </c>
-      <c r="S62" s="12">
-        <v>18.67</v>
+      <c r="S62" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="T62" t="s">
         <v>177</v>
@@ -13883,16 +13922,16 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E63">
         <v>96</v>
@@ -13936,8 +13975,8 @@
       <c r="R63" s="10">
         <v>0</v>
       </c>
-      <c r="S63" s="12">
-        <v>39.99</v>
+      <c r="S63" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="T63" t="s">
         <v>177</v>
@@ -13951,16 +13990,16 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E64">
         <v>73</v>
@@ -14004,8 +14043,8 @@
       <c r="R64" s="10">
         <v>0</v>
       </c>
-      <c r="S64" s="12">
-        <v>26.99</v>
+      <c r="S64" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="T64" t="s">
         <v>177</v>
@@ -14032,80 +14071,80 @@
       <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="13.8611111111111"/>
+    <col min="1" max="2" width="13.8583333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -14116,16 +14155,16 @@
         <v>45238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>122</v>
@@ -14185,16 +14224,16 @@
         <v>45238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>122</v>
@@ -14254,16 +14293,16 @@
         <v>45238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>122</v>
@@ -14323,16 +14362,16 @@
         <v>45238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -14394,16 +14433,16 @@
         <v>45238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
@@ -14465,16 +14504,16 @@
         <v>45238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>131</v>
@@ -14534,16 +14573,16 @@
         <v>45238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>77</v>
@@ -14603,16 +14642,16 @@
         <v>45238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>54</v>
@@ -14674,16 +14713,16 @@
         <v>45238</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>25</v>
@@ -14745,16 +14784,16 @@
         <v>45238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>189</v>
@@ -14808,16 +14847,16 @@
         <v>45238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>131</v>
@@ -14879,16 +14918,16 @@
         <v>45238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>189</v>
@@ -14948,16 +14987,16 @@
         <v>45238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>38</v>
@@ -15019,16 +15058,16 @@
         <v>45238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>38</v>
@@ -15090,16 +15129,16 @@
         <v>45238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>38</v>
@@ -15153,16 +15192,16 @@
         <v>45238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>28</v>
@@ -15224,16 +15263,16 @@
         <v>45238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
@@ -15295,16 +15334,16 @@
         <v>45238</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>135</v>
@@ -15364,16 +15403,16 @@
         <v>45238</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>139</v>
@@ -15427,22 +15466,22 @@
         <v>45238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I21" s="4">
         <v>13</v>
@@ -15490,16 +15529,16 @@
         <v>45238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>135</v>
@@ -15559,16 +15598,16 @@
         <v>45238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>139</v>
@@ -15622,22 +15661,22 @@
         <v>45238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I24" s="4">
         <v>70</v>
@@ -15685,16 +15724,16 @@
         <v>45238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>139</v>
@@ -15754,22 +15793,22 @@
         <v>45238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I26" s="4">
         <v>98</v>
@@ -15817,16 +15856,16 @@
         <v>45238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>189</v>
@@ -15880,16 +15919,16 @@
         <v>45238</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>77</v>
@@ -15951,16 +15990,16 @@
         <v>45238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>54</v>
@@ -16020,16 +16059,16 @@
         <v>45238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>135</v>
@@ -16083,16 +16122,16 @@
         <v>45238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>77</v>
@@ -16146,16 +16185,16 @@
         <v>45238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>54</v>
@@ -16215,16 +16254,16 @@
         <v>45238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>131</v>
@@ -16278,16 +16317,16 @@
         <v>45238</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>84</v>
@@ -16347,16 +16386,16 @@
         <v>45238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>84</v>
@@ -16418,16 +16457,16 @@
         <v>45238</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>31</v>
@@ -16492,10 +16531,10 @@
         <v>57</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>57</v>
@@ -16560,16 +16599,16 @@
         <v>45238</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>44</v>
@@ -16629,16 +16668,16 @@
         <v>45238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>88</v>
@@ -16700,16 +16739,16 @@
         <v>45238</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>102</v>
@@ -16763,16 +16802,16 @@
         <v>45238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>145</v>
@@ -16834,16 +16873,16 @@
         <v>45238</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>142</v>
@@ -16903,22 +16942,22 @@
         <v>45238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I43" s="4">
         <v>944</v>
@@ -16972,16 +17011,16 @@
         <v>45238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>95</v>
@@ -17043,16 +17082,16 @@
         <v>45238</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>151</v>
@@ -17112,16 +17151,16 @@
         <v>45238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>151</v>
@@ -17181,16 +17220,16 @@
         <v>45238</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>95</v>
@@ -17250,16 +17289,16 @@
         <v>45238</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>44</v>
@@ -17319,16 +17358,16 @@
         <v>45238</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>151</v>
@@ -17388,16 +17427,16 @@
         <v>45238</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>95</v>
@@ -17459,22 +17498,22 @@
         <v>45238</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I51" s="4">
         <v>2318</v>
@@ -17528,16 +17567,16 @@
         <v>45238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>111</v>
@@ -17597,16 +17636,16 @@
         <v>45238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>88</v>
@@ -17666,16 +17705,16 @@
         <v>45238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>44</v>
@@ -17737,16 +17776,16 @@
         <v>45238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>63</v>
@@ -17808,16 +17847,16 @@
         <v>45238</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>41</v>
@@ -17882,13 +17921,13 @@
         <v>57</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>57</v>
@@ -17948,16 +17987,16 @@
         <v>45238</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>102</v>
@@ -18017,16 +18056,16 @@
         <v>45238</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>145</v>
@@ -18086,16 +18125,16 @@
         <v>45238</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>142</v>
@@ -18152,13 +18191,13 @@
         <v>57</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>57</v>
@@ -18220,22 +18259,22 @@
         <v>45238</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I62" s="4">
         <v>153</v>
@@ -18289,22 +18328,22 @@
         <v>45238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I63" s="4">
         <v>90</v>
@@ -18352,16 +18391,16 @@
         <v>45238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>98</v>
@@ -18423,16 +18462,16 @@
         <v>45238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>81</v>
@@ -18492,16 +18531,16 @@
         <v>45238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>185</v>
@@ -18561,16 +18600,16 @@
         <v>45238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>115</v>
@@ -18633,13 +18672,13 @@
         <v>47</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>47</v>
@@ -18701,16 +18740,16 @@
         <v>45238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>185</v>
@@ -18770,16 +18809,16 @@
         <v>45238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>115</v>
@@ -18841,16 +18880,16 @@
         <v>45238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>47</v>
@@ -18912,16 +18951,16 @@
         <v>45238</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>31</v>
@@ -18983,16 +19022,16 @@
         <v>45238</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>31</v>
@@ -19054,16 +19093,16 @@
         <v>45238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>157</v>
@@ -19123,16 +19162,16 @@
         <v>45238</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>67</v>
@@ -19192,16 +19231,16 @@
         <v>45238</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>118</v>
@@ -19261,16 +19300,16 @@
         <v>45238</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>44</v>
@@ -19330,16 +19369,16 @@
         <v>45238</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>81</v>
@@ -19401,16 +19440,16 @@
         <v>45238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>84</v>
@@ -19464,16 +19503,16 @@
         <v>45238</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>67</v>
@@ -19535,16 +19574,16 @@
         <v>45238</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>67</v>
@@ -19604,16 +19643,16 @@
         <v>45236</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>165</v>
@@ -19675,22 +19714,22 @@
         <v>45238</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I83" s="4">
         <v>2230</v>
@@ -19746,16 +19785,16 @@
         <v>45238</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>192</v>
@@ -19809,16 +19848,16 @@
         <v>45238</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>161</v>
@@ -19880,16 +19919,16 @@
         <v>45238</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>41</v>
@@ -19951,16 +19990,16 @@
         <v>45238</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>41</v>
@@ -20022,16 +20061,16 @@
         <v>45238</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>63</v>
@@ -20091,16 +20130,16 @@
         <v>45238</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>118</v>
@@ -20160,16 +20199,16 @@
         <v>45238</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>98</v>
@@ -20229,22 +20268,22 @@
         <v>45238</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I91" s="4">
         <v>69</v>
@@ -20292,16 +20331,16 @@
         <v>45238</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>71</v>
@@ -20363,16 +20402,16 @@
         <v>45238</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>71</v>
@@ -20432,22 +20471,22 @@
         <v>45238</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I94" s="4">
         <v>31</v>
@@ -20495,22 +20534,22 @@
         <v>45238</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I95" s="4">
         <v>567</v>
@@ -20564,16 +20603,16 @@
         <v>45238</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>165</v>
@@ -20633,16 +20672,16 @@
         <v>45238</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>169</v>
@@ -20704,22 +20743,22 @@
         <v>45238</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I98" s="4">
         <v>1820</v>
@@ -20773,22 +20812,22 @@
         <v>45238</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I99" s="4">
         <v>66</v>
@@ -20836,22 +20875,22 @@
         <v>45238</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I100" s="4">
         <v>173</v>
@@ -20899,16 +20938,16 @@
         <v>45238</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>169</v>
@@ -20965,10 +21004,10 @@
         <v>182</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>182</v>
@@ -21031,22 +21070,22 @@
         <v>45238</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I103" s="4">
         <v>101</v>
@@ -21100,22 +21139,22 @@
         <v>45238</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="I104" s="4">
         <v>257</v>
@@ -21169,22 +21208,22 @@
         <v>45238</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="I105" s="4">
         <v>247</v>
@@ -21232,22 +21271,22 @@
         <v>45238</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="I106" s="4">
         <v>986</v>
@@ -21304,13 +21343,13 @@
         <v>182</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>182</v>
@@ -21377,82 +21416,82 @@
       <selection activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="13.8611111111111"/>
+    <col min="1" max="2" width="13.8583333333333"/>
     <col min="15" max="15" width="9.5"/>
     <col min="19" max="19" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -21463,16 +21502,16 @@
         <v>45238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>122</v>
@@ -21532,16 +21571,16 @@
         <v>45238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>122</v>
@@ -21601,16 +21640,16 @@
         <v>45238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>122</v>
@@ -21670,16 +21709,16 @@
         <v>45238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -21741,16 +21780,16 @@
         <v>45238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
@@ -21812,16 +21851,16 @@
         <v>45238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>131</v>
@@ -21881,16 +21920,16 @@
         <v>45238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>77</v>
@@ -21952,16 +21991,16 @@
         <v>45238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>54</v>
@@ -22023,16 +22062,16 @@
         <v>45238</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>25</v>
@@ -22094,16 +22133,16 @@
         <v>45238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>189</v>
@@ -22163,16 +22202,16 @@
         <v>45238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>131</v>
@@ -22234,16 +22273,16 @@
         <v>45238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>189</v>
@@ -22303,16 +22342,16 @@
         <v>45238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>38</v>
@@ -22374,16 +22413,16 @@
         <v>45238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>38</v>
@@ -22445,16 +22484,16 @@
         <v>45238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>38</v>
@@ -22508,16 +22547,16 @@
         <v>45238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>28</v>
@@ -22579,16 +22618,16 @@
         <v>45238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
@@ -22650,16 +22689,16 @@
         <v>45238</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>135</v>
@@ -22721,16 +22760,16 @@
         <v>45238</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>139</v>
@@ -22784,22 +22823,22 @@
         <v>45238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I21" s="4">
         <v>37</v>
@@ -22847,16 +22886,16 @@
         <v>45238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>135</v>
@@ -22916,16 +22955,16 @@
         <v>45238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>139</v>
@@ -22987,22 +23026,22 @@
         <v>45238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I24" s="4">
         <v>162</v>
@@ -23056,16 +23095,16 @@
         <v>45238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>139</v>
@@ -23127,22 +23166,22 @@
         <v>45238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I26" s="4">
         <v>401</v>
@@ -23190,16 +23229,16 @@
         <v>45238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>189</v>
@@ -23261,16 +23300,16 @@
         <v>45238</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>77</v>
@@ -23332,16 +23371,16 @@
         <v>45238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>54</v>
@@ -23403,16 +23442,16 @@
         <v>45238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>135</v>
@@ -23472,16 +23511,16 @@
         <v>45238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>77</v>
@@ -23535,16 +23574,16 @@
         <v>45238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>54</v>
@@ -23604,16 +23643,16 @@
         <v>45238</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>131</v>
@@ -23675,16 +23714,16 @@
         <v>45238</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>84</v>
@@ -23744,16 +23783,16 @@
         <v>45238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>84</v>
@@ -23815,16 +23854,16 @@
         <v>45238</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>31</v>
@@ -23889,10 +23928,10 @@
         <v>57</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>57</v>
@@ -23957,16 +23996,16 @@
         <v>45238</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>44</v>
@@ -24026,16 +24065,16 @@
         <v>45238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>88</v>
@@ -24097,16 +24136,16 @@
         <v>45238</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>102</v>
@@ -24166,16 +24205,16 @@
         <v>45238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>145</v>
@@ -24237,16 +24276,16 @@
         <v>45238</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>142</v>
@@ -24308,22 +24347,22 @@
         <v>45238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I43" s="4">
         <v>1893</v>
@@ -24377,16 +24416,16 @@
         <v>45238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>95</v>
@@ -24448,16 +24487,16 @@
         <v>45238</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>151</v>
@@ -24517,16 +24556,16 @@
         <v>45238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>151</v>
@@ -24586,16 +24625,16 @@
         <v>45238</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>95</v>
@@ -24657,16 +24696,16 @@
         <v>45238</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>44</v>
@@ -24726,16 +24765,16 @@
         <v>45238</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>151</v>
@@ -24795,16 +24834,16 @@
         <v>45238</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>95</v>
@@ -24866,22 +24905,22 @@
         <v>45238</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I51" s="4">
         <v>3746</v>
@@ -24935,16 +24974,16 @@
         <v>45238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>111</v>
@@ -25006,16 +25045,16 @@
         <v>45238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>88</v>
@@ -25075,16 +25114,16 @@
         <v>45238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>44</v>
@@ -25146,16 +25185,16 @@
         <v>45238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>63</v>
@@ -25217,16 +25256,16 @@
         <v>45238</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>41</v>
@@ -25291,13 +25330,13 @@
         <v>57</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>57</v>
@@ -25357,16 +25396,16 @@
         <v>45238</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>102</v>
@@ -25426,16 +25465,16 @@
         <v>45238</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>145</v>
@@ -25495,16 +25534,16 @@
         <v>45238</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>142</v>
@@ -25561,13 +25600,13 @@
         <v>57</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>57</v>
@@ -25629,22 +25668,22 @@
         <v>45238</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I62" s="4">
         <v>366</v>
@@ -25698,22 +25737,22 @@
         <v>45238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I63" s="4">
         <v>203</v>
@@ -25767,16 +25806,16 @@
         <v>45238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>98</v>
@@ -25838,16 +25877,16 @@
         <v>45238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>81</v>
@@ -25909,16 +25948,16 @@
         <v>45238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>185</v>
@@ -25980,16 +26019,16 @@
         <v>45238</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>115</v>
@@ -26052,13 +26091,13 @@
         <v>47</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>47</v>
@@ -26120,16 +26159,16 @@
         <v>45238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>185</v>
@@ -26189,16 +26228,16 @@
         <v>45238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>115</v>
@@ -26260,16 +26299,16 @@
         <v>45238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>47</v>
@@ -26331,16 +26370,16 @@
         <v>45238</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>31</v>
@@ -26402,16 +26441,16 @@
         <v>45238</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>31</v>
@@ -26473,16 +26512,16 @@
         <v>45238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>157</v>
@@ -26544,16 +26583,16 @@
         <v>45238</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>67</v>
@@ -26615,16 +26654,16 @@
         <v>45238</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>118</v>
@@ -26684,16 +26723,16 @@
         <v>45238</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>44</v>
@@ -26753,16 +26792,16 @@
         <v>45238</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>81</v>
@@ -26824,16 +26863,16 @@
         <v>45238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>84</v>
@@ -26887,16 +26926,16 @@
         <v>45238</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>67</v>
@@ -26958,16 +26997,16 @@
         <v>45238</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>67</v>
@@ -27029,16 +27068,16 @@
         <v>45236</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>165</v>
@@ -27100,22 +27139,22 @@
         <v>45238</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I83" s="4">
         <v>2230</v>
@@ -27171,16 +27210,16 @@
         <v>45238</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>192</v>
@@ -27240,16 +27279,16 @@
         <v>45238</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>161</v>
@@ -27311,16 +27350,16 @@
         <v>45238</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>41</v>
@@ -27382,16 +27421,16 @@
         <v>45238</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>41</v>
@@ -27453,16 +27492,16 @@
         <v>45238</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>63</v>
@@ -27524,16 +27563,16 @@
         <v>45238</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>118</v>
@@ -27593,16 +27632,16 @@
         <v>45238</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>98</v>
@@ -27662,22 +27701,22 @@
         <v>45238</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I91" s="4">
         <v>209</v>
@@ -27725,16 +27764,16 @@
         <v>45238</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>71</v>
@@ -27796,16 +27835,16 @@
         <v>45238</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>71</v>
@@ -27867,22 +27906,22 @@
         <v>45238</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I94" s="4">
         <v>73</v>
@@ -27930,22 +27969,22 @@
         <v>45238</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I95" s="4">
         <v>567</v>
@@ -27999,16 +28038,16 @@
         <v>45238</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>165</v>
@@ -28068,16 +28107,16 @@
         <v>45238</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>169</v>
@@ -28139,22 +28178,22 @@
         <v>45238</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I98" s="4">
         <v>2111</v>
@@ -28208,22 +28247,22 @@
         <v>45238</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I99" s="4">
         <v>66</v>
@@ -28271,22 +28310,22 @@
         <v>45238</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I100" s="4">
         <v>173</v>
@@ -28334,16 +28373,16 @@
         <v>45238</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>169</v>
@@ -28400,10 +28439,10 @@
         <v>182</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>182</v>
@@ -28468,22 +28507,22 @@
         <v>45238</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I103" s="4">
         <v>300</v>
@@ -28539,22 +28578,22 @@
         <v>45238</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="I104" s="4">
         <v>450</v>
@@ -28608,22 +28647,22 @@
         <v>45238</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="I105" s="4">
         <v>431</v>
@@ -28671,22 +28710,22 @@
         <v>45238</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="I106" s="4">
         <v>2165</v>
@@ -28743,13 +28782,13 @@
         <v>182</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>182</v>
@@ -28816,82 +28855,82 @@
       <selection activeCell="M79" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="13.8611111111111"/>
+    <col min="1" max="2" width="13.8583333333333"/>
     <col min="15" max="15" width="9.5"/>
     <col min="19" max="19" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -28902,16 +28941,16 @@
         <v>45238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>122</v>
@@ -28973,16 +29012,16 @@
         <v>45238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>122</v>
@@ -29044,16 +29083,16 @@
         <v>45238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>122</v>
@@ -29113,16 +29152,16 @@
         <v>45238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -29184,16 +29223,16 @@
         <v>45238</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>25</v>
@@ -29255,16 +29294,16 @@
         <v>45238</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>131</v>
@@ -29324,16 +29363,16 @@
         <v>45238</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>77</v>
@@ -29395,16 +29434,16 @@
         <v>45238</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>54</v>
@@ -29466,16 +29505,16 @@
         <v>45238</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>25</v>
@@ -29537,16 +29576,16 @@
         <v>45238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>189</v>
@@ -29606,16 +29645,16 @@
         <v>45238</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>131</v>
@@ -29677,16 +29716,16 @@
         <v>45238</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>189</v>
@@ -29746,16 +29785,16 @@
         <v>45238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>38</v>
@@ -29817,16 +29856,16 @@
         <v>45238</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>38</v>
@@ -29888,16 +29927,16 @@
         <v>45238</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>38</v>
@@ -29957,16 +29996,16 @@
         <v>45238</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>28</v>
@@ -30028,16 +30067,16 @@
         <v>45238</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
@@ -30099,16 +30138,16 @@
         <v>45238</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>135</v>
@@ -30170,16 +30209,16 @@
         <v>45238</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>139</v>
@@ -30233,22 +30272,22 @@
         <v>45238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I21" s="4">
         <v>108</v>
@@ -30296,16 +30335,16 @@
         <v>45238</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>135</v>
@@ -30365,16 +30404,16 @@
         <v>45238</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>139</v>
@@ -30436,22 +30475,22 @@
         <v>45238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I24" s="4">
         <v>342</v>
@@ -30505,16 +30544,16 @@
         <v>45238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>139</v>
@@ -30576,22 +30615,22 @@
         <v>45238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I26" s="4">
         <v>987</v>
@@ -30639,16 +30678,16 @@
         <v>45238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>189</v>
@@ -30710,16 +30749,16 @@
         <v>45238</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>77</v>
@@ -30781,16 +30820,16 @@
         <v>45238</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>54</v>
@@ -30852,16 +30891,16 @@
         <v>45238</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>135</v>
@@ -30921,16 +30960,16 @@
         <v>45238</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>77</v>
@@ -30990,16 +31029,16 @@
         <v>45238</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>54</v>
@@ -31059,22 +31098,22 @@
         <v>45214</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I33" s="4">
         <v>736</v>
@@ -31130,16 +31169,16 @@
         <v>45238</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>131</v>
@@ -31201,16 +31240,16 @@
         <v>45238</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>84</v>
@@ -31270,16 +31309,16 @@
         <v>45238</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>84</v>
@@ -31341,16 +31380,16 @@
         <v>45238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>31</v>
@@ -31415,10 +31454,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>57</v>
@@ -31483,16 +31522,16 @@
         <v>45238</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>44</v>
@@ -31554,16 +31593,16 @@
         <v>45238</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>88</v>
@@ -31625,16 +31664,16 @@
         <v>45238</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>102</v>
@@ -31694,16 +31733,16 @@
         <v>45238</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>145</v>
@@ -31765,16 +31804,16 @@
         <v>45238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>142</v>
@@ -31836,22 +31875,22 @@
         <v>45238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I44" s="4">
         <v>2530</v>
@@ -31907,16 +31946,16 @@
         <v>45238</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>95</v>
@@ -31978,16 +32017,16 @@
         <v>45238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>151</v>
@@ -32047,16 +32086,16 @@
         <v>45238</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>151</v>
@@ -32116,16 +32155,16 @@
         <v>45238</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>95</v>
@@ -32187,16 +32226,16 @@
         <v>45238</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>44</v>
@@ -32256,16 +32295,16 @@
         <v>45238</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>151</v>
@@ -32325,16 +32364,16 @@
         <v>45238</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>95</v>
@@ -32396,22 +32435,22 @@
         <v>45238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I52" s="4">
         <v>6380</v>
@@ -32467,16 +32506,16 @@
         <v>45238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>111</v>
@@ -32538,16 +32577,16 @@
         <v>45238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>88</v>
@@ -32607,16 +32646,16 @@
         <v>45238</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>44</v>
@@ -32678,16 +32717,16 @@
         <v>45238</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>63</v>
@@ -32749,16 +32788,16 @@
         <v>45238</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>41</v>
@@ -32823,13 +32862,13 @@
         <v>57</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>57</v>
@@ -32889,16 +32928,16 @@
         <v>45238</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>102</v>
@@ -32958,16 +32997,16 @@
         <v>45238</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>145</v>
@@ -33027,16 +33066,16 @@
         <v>45238</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>142</v>
@@ -33099,13 +33138,13 @@
         <v>57</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>57</v>
@@ -33167,22 +33206,22 @@
         <v>45238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="I63" s="4">
         <v>807</v>
@@ -33236,22 +33275,22 @@
         <v>45238</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I64" s="4">
         <v>378</v>
@@ -33305,16 +33344,16 @@
         <v>45238</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>98</v>
@@ -33376,16 +33415,16 @@
         <v>45238</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>81</v>
@@ -33447,16 +33486,16 @@
         <v>45211</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>154</v>
@@ -33510,16 +33549,16 @@
         <v>45238</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>185</v>
@@ -33581,16 +33620,16 @@
         <v>45238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>115</v>
@@ -33655,13 +33694,13 @@
         <v>47</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>47</v>
@@ -33723,16 +33762,16 @@
         <v>45238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>185</v>
@@ -33794,16 +33833,16 @@
         <v>45238</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>115</v>
@@ -33865,16 +33904,16 @@
         <v>45238</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>47</v>
@@ -33936,16 +33975,16 @@
         <v>45238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>31</v>
@@ -34007,16 +34046,16 @@
         <v>45238</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>31</v>
@@ -34078,16 +34117,16 @@
         <v>45238</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>157</v>
@@ -34149,16 +34188,16 @@
         <v>45238</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>67</v>
@@ -34220,16 +34259,16 @@
         <v>45238</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>118</v>
@@ -34291,16 +34330,16 @@
         <v>45238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>44</v>
@@ -34360,16 +34399,16 @@
         <v>45238</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>81</v>
@@ -34431,16 +34470,16 @@
         <v>45211</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>154</v>
@@ -34500,16 +34539,16 @@
         <v>45238</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>84</v>
@@ -34563,16 +34602,16 @@
         <v>45238</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>67</v>
@@ -34634,16 +34673,16 @@
         <v>45238</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>67</v>
@@ -34705,16 +34744,16 @@
         <v>45236</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>165</v>
@@ -34776,22 +34815,22 @@
         <v>45238</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I86" s="4">
         <v>29081</v>
@@ -34847,16 +34886,16 @@
         <v>45238</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>192</v>
@@ -34916,16 +34955,16 @@
         <v>45238</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>161</v>
@@ -34987,16 +35026,16 @@
         <v>45238</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>41</v>
@@ -35058,16 +35097,16 @@
         <v>45238</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>41</v>
@@ -35129,16 +35168,16 @@
         <v>45238</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>63</v>
@@ -35200,16 +35239,16 @@
         <v>45238</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>118</v>
@@ -35271,16 +35310,16 @@
         <v>45238</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>98</v>
@@ -35342,22 +35381,22 @@
         <v>45238</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I94" s="4">
         <v>525</v>
@@ -35405,16 +35444,16 @@
         <v>45238</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>71</v>
@@ -35476,16 +35515,16 @@
         <v>45238</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>71</v>
@@ -35547,22 +35586,22 @@
         <v>45238</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="I97" s="4">
         <v>81</v>
@@ -35610,22 +35649,22 @@
         <v>45238</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I98" s="4">
         <v>567</v>
@@ -35679,16 +35718,16 @@
         <v>45238</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>165</v>
@@ -35748,16 +35787,16 @@
         <v>45238</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>169</v>
@@ -35819,22 +35858,22 @@
         <v>45238</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I101" s="4">
         <v>2111</v>
@@ -35888,22 +35927,22 @@
         <v>45238</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I102" s="4">
         <v>66</v>
@@ -35951,22 +35990,22 @@
         <v>45238</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="I103" s="4">
         <v>173</v>
@@ -36014,16 +36053,16 @@
         <v>45238</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>169</v>
@@ -36080,10 +36119,10 @@
         <v>182</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>182</v>
@@ -36148,22 +36187,22 @@
         <v>45238</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I106" s="4">
         <v>417</v>
@@ -36219,22 +36258,22 @@
         <v>45238</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="I107" s="4">
         <v>938</v>
@@ -36288,22 +36327,22 @@
         <v>45238</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="I108" s="4">
         <v>984</v>
@@ -36357,22 +36396,22 @@
         <v>45238</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="I109" s="4">
         <v>5220</v>
@@ -36429,13 +36468,13 @@
         <v>182</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>182</v>

--- a/6店销售情况-1110.xlsx
+++ b/6店销售情况-1110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="销售11.02-11.08" sheetId="1" r:id="rId1"/>
@@ -5865,7 +5865,7 @@
   <sheetPr/>
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
@@ -14067,8 +14067,8 @@
   <sheetPr/>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M$1:M$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
